--- a/lab/进度图.xlsx
+++ b/lab/进度图.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{2268F149-A0B5-4A7D-B1CD-010E2CB69FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA99E57-507B-425B-AA38-E9C4A54D4129}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,13 @@
     <xf numFmtId="180" fontId="23" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1215,13 +1222,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1777,7 +1777,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1823,340 +1823,340 @@
         <v>2</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79">
+      <c r="D3" s="77"/>
+      <c r="E3" s="82">
         <v>44276</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="47">
-        <v>2</v>
-      </c>
-      <c r="I4" s="76">
+        <v>3</v>
+      </c>
+      <c r="I4" s="79">
         <f>I5</f>
-        <v>44284</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="76">
+        <v>44291</v>
+      </c>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79">
         <f>P5</f>
-        <v>44291</v>
-      </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="76">
+        <v>44298</v>
+      </c>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79">
         <f>W5</f>
-        <v>44298</v>
-      </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76">
+        <v>44305</v>
+      </c>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="79">
         <f>AD5</f>
-        <v>44305</v>
-      </c>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="76">
+        <v>44312</v>
+      </c>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="79">
         <f>AK5</f>
-        <v>44312</v>
-      </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="76">
+        <v>44319</v>
+      </c>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79">
         <f>AR5</f>
-        <v>44319</v>
-      </c>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="76">
+        <v>44326</v>
+      </c>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="79">
         <f>AY5</f>
-        <v>44326</v>
-      </c>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="76">
+        <v>44333</v>
+      </c>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <f>BF5</f>
-        <v>44333</v>
-      </c>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="78"/>
+        <v>44340</v>
+      </c>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="I5" s="73">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="J5" s="74">
         <f>I5+1</f>
-        <v>44285</v>
+        <v>44292</v>
       </c>
       <c r="K5" s="74">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="0"/>
-        <v>44287</v>
+        <v>44294</v>
       </c>
       <c r="M5" s="74">
         <f t="shared" si="0"/>
-        <v>44288</v>
+        <v>44295</v>
       </c>
       <c r="N5" s="74">
         <f t="shared" si="0"/>
-        <v>44289</v>
+        <v>44296</v>
       </c>
       <c r="O5" s="75">
         <f t="shared" si="0"/>
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="P5" s="73">
         <f>O5+1</f>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="Q5" s="74">
         <f>P5+1</f>
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="R5" s="74">
         <f t="shared" si="0"/>
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="S5" s="74">
         <f t="shared" si="0"/>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="T5" s="74">
         <f t="shared" si="0"/>
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="U5" s="74">
         <f t="shared" si="0"/>
-        <v>44296</v>
+        <v>44303</v>
       </c>
       <c r="V5" s="75">
         <f t="shared" si="0"/>
-        <v>44297</v>
+        <v>44304</v>
       </c>
       <c r="W5" s="73">
         <f>V5+1</f>
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="X5" s="74">
         <f>W5+1</f>
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="Y5" s="74">
         <f t="shared" si="0"/>
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="Z5" s="74">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="AA5" s="74">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="AB5" s="74">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44310</v>
       </c>
       <c r="AC5" s="75">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="AD5" s="73">
         <f>AC5+1</f>
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="AE5" s="74">
         <f>AD5+1</f>
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="AF5" s="74">
         <f t="shared" si="0"/>
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="AG5" s="74">
         <f t="shared" si="0"/>
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="AH5" s="74">
         <f t="shared" si="0"/>
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="AI5" s="74">
         <f t="shared" si="0"/>
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="AJ5" s="75">
         <f t="shared" si="0"/>
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="AK5" s="73">
         <f>AJ5+1</f>
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="AL5" s="74">
         <f>AK5+1</f>
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="AM5" s="74">
         <f t="shared" si="0"/>
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="AN5" s="74">
         <f t="shared" si="0"/>
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="AO5" s="74">
         <f t="shared" si="0"/>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="AP5" s="74">
         <f t="shared" si="0"/>
-        <v>44317</v>
+        <v>44324</v>
       </c>
       <c r="AQ5" s="75">
         <f t="shared" si="0"/>
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="AR5" s="73">
         <f>AQ5+1</f>
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="AS5" s="74">
         <f>AR5+1</f>
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="AT5" s="74">
         <f t="shared" si="0"/>
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="AU5" s="74">
         <f t="shared" si="0"/>
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="AV5" s="74">
         <f t="shared" si="0"/>
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="AW5" s="74">
         <f t="shared" si="0"/>
-        <v>44324</v>
+        <v>44331</v>
       </c>
       <c r="AX5" s="75">
         <f t="shared" si="0"/>
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="AY5" s="73">
         <f>AX5+1</f>
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="AZ5" s="74">
         <f>AY5+1</f>
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="BA5" s="74">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="BB5" s="74">
         <f t="shared" si="1"/>
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="BC5" s="74">
         <f t="shared" si="1"/>
-        <v>44330</v>
+        <v>44337</v>
       </c>
       <c r="BD5" s="74">
         <f t="shared" si="1"/>
-        <v>44331</v>
+        <v>44338</v>
       </c>
       <c r="BE5" s="75">
         <f t="shared" si="1"/>
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="BF5" s="73">
         <f>BE5+1</f>
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="BG5" s="74">
         <f>BF5+1</f>
-        <v>44334</v>
+        <v>44341</v>
       </c>
       <c r="BH5" s="74">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="BI5" s="74">
         <f t="shared" si="2"/>
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="BJ5" s="74">
         <f t="shared" si="2"/>
-        <v>44337</v>
+        <v>44344</v>
       </c>
       <c r="BK5" s="74">
         <f t="shared" si="2"/>
-        <v>44338</v>
+        <v>44345</v>
       </c>
       <c r="BL5" s="75">
         <f t="shared" si="2"/>
-        <v>44339</v>
+        <v>44346</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2884,7 +2884,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="1">
         <f>E10+1</f>
@@ -3038,7 +3038,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="2">
         <f>F13+1</f>
@@ -3119,7 +3119,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="22">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="2">
         <f>E15+2</f>
@@ -3200,7 +3200,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="2">
         <f>E16+1</f>
@@ -3281,7 +3281,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="22">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E18" s="2">
         <f>E17</f>
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E20" s="3">
         <f>E18+15</f>
@@ -4455,11 +4455,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4467,6 +4462,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D32">
@@ -4496,7 +4496,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>

--- a/lab/进度图.xlsx
+++ b/lab/进度图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA99E57-507B-425B-AA38-E9C4A54D4129}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA727FA9-D942-4435-881A-5814C05D6269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,18 @@
     <xf numFmtId="180" fontId="23" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1210,18 +1222,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1777,7 +1777,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1823,340 +1823,340 @@
         <v>2</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <v>44276</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="47">
-        <v>3</v>
-      </c>
-      <c r="I4" s="79">
+        <v>4</v>
+      </c>
+      <c r="I4" s="76">
         <f>I5</f>
-        <v>44291</v>
-      </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+        <v>44298</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f>P5</f>
-        <v>44298</v>
-      </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+        <v>44305</v>
+      </c>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f>W5</f>
-        <v>44305</v>
-      </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+        <v>44312</v>
+      </c>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f>AD5</f>
-        <v>44312</v>
-      </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+        <v>44319</v>
+      </c>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f>AK5</f>
-        <v>44319</v>
-      </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+        <v>44326</v>
+      </c>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f>AR5</f>
-        <v>44326</v>
-      </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+        <v>44333</v>
+      </c>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f>AY5</f>
-        <v>44333</v>
-      </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+        <v>44340</v>
+      </c>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f>BF5</f>
-        <v>44340</v>
-      </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+        <v>44347</v>
+      </c>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="I5" s="73">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="J5" s="74">
         <f>I5+1</f>
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="K5" s="74">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="0"/>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="M5" s="74">
         <f t="shared" si="0"/>
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="N5" s="74">
         <f t="shared" si="0"/>
-        <v>44296</v>
+        <v>44303</v>
       </c>
       <c r="O5" s="75">
         <f t="shared" si="0"/>
-        <v>44297</v>
+        <v>44304</v>
       </c>
       <c r="P5" s="73">
         <f>O5+1</f>
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="Q5" s="74">
         <f>P5+1</f>
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="R5" s="74">
         <f t="shared" si="0"/>
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="S5" s="74">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="T5" s="74">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="U5" s="74">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44310</v>
       </c>
       <c r="V5" s="75">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="W5" s="73">
         <f>V5+1</f>
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="X5" s="74">
         <f>W5+1</f>
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="Y5" s="74">
         <f t="shared" si="0"/>
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="Z5" s="74">
         <f t="shared" si="0"/>
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="AA5" s="74">
         <f t="shared" si="0"/>
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="AB5" s="74">
         <f t="shared" si="0"/>
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="AC5" s="75">
         <f t="shared" si="0"/>
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="AD5" s="73">
         <f>AC5+1</f>
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="AE5" s="74">
         <f>AD5+1</f>
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="AF5" s="74">
         <f t="shared" si="0"/>
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="AG5" s="74">
         <f t="shared" si="0"/>
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="AH5" s="74">
         <f t="shared" si="0"/>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="AI5" s="74">
         <f t="shared" si="0"/>
-        <v>44317</v>
+        <v>44324</v>
       </c>
       <c r="AJ5" s="75">
         <f t="shared" si="0"/>
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="AK5" s="73">
         <f>AJ5+1</f>
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="AL5" s="74">
         <f>AK5+1</f>
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="AM5" s="74">
         <f t="shared" si="0"/>
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="AN5" s="74">
         <f t="shared" si="0"/>
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="AO5" s="74">
         <f t="shared" si="0"/>
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="AP5" s="74">
         <f t="shared" si="0"/>
-        <v>44324</v>
+        <v>44331</v>
       </c>
       <c r="AQ5" s="75">
         <f t="shared" si="0"/>
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="AR5" s="73">
         <f>AQ5+1</f>
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="AS5" s="74">
         <f>AR5+1</f>
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="AT5" s="74">
         <f t="shared" si="0"/>
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="AU5" s="74">
         <f t="shared" si="0"/>
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="AV5" s="74">
         <f t="shared" si="0"/>
-        <v>44330</v>
+        <v>44337</v>
       </c>
       <c r="AW5" s="74">
         <f t="shared" si="0"/>
-        <v>44331</v>
+        <v>44338</v>
       </c>
       <c r="AX5" s="75">
         <f t="shared" si="0"/>
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="AY5" s="73">
         <f>AX5+1</f>
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="AZ5" s="74">
         <f>AY5+1</f>
-        <v>44334</v>
+        <v>44341</v>
       </c>
       <c r="BA5" s="74">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="BB5" s="74">
         <f t="shared" si="1"/>
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="BC5" s="74">
         <f t="shared" si="1"/>
-        <v>44337</v>
+        <v>44344</v>
       </c>
       <c r="BD5" s="74">
         <f t="shared" si="1"/>
-        <v>44338</v>
+        <v>44345</v>
       </c>
       <c r="BE5" s="75">
         <f t="shared" si="1"/>
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="BF5" s="73">
         <f>BE5+1</f>
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="BG5" s="74">
         <f>BF5+1</f>
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="BH5" s="74">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44342</v>
+        <v>44349</v>
       </c>
       <c r="BI5" s="74">
         <f t="shared" si="2"/>
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="BJ5" s="74">
         <f t="shared" si="2"/>
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="BK5" s="74">
         <f t="shared" si="2"/>
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="BL5" s="75">
         <f t="shared" si="2"/>
-        <v>44346</v>
+        <v>44353</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2641,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <f>F9</f>
@@ -2803,7 +2803,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="18">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E12" s="1">
         <f>F11</f>
@@ -2884,7 +2884,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="1">
         <f>E10+1</f>
@@ -3038,7 +3038,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="2">
         <f>F13+1</f>
@@ -3119,7 +3119,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="22">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="E16" s="2">
         <f>E15+2</f>
@@ -3200,7 +3200,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E17" s="2">
         <f>E16+1</f>
@@ -3281,7 +3281,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="22">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="2">
         <f>E17</f>
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="26">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E20" s="3">
         <f>E18+15</f>
@@ -3516,7 +3516,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="3">
         <f>F18+1</f>
@@ -3597,7 +3597,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="26">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E22" s="3">
         <f>E21+5</f>
@@ -4455,6 +4455,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4462,11 +4467,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D32">

--- a/lab/进度图.xlsx
+++ b/lab/进度图.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA727FA9-D942-4435-881A-5814C05D6269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496710C9-9F10-4613-BD5E-A70E844223B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,10 +1777,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="43" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="42" customWidth="1"/>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4" s="76">
         <f>I5</f>
-        <v>44298</v>
+        <v>44326</v>
       </c>
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
@@ -1855,7 +1855,7 @@
       <c r="O4" s="78"/>
       <c r="P4" s="76">
         <f>P5</f>
-        <v>44305</v>
+        <v>44333</v>
       </c>
       <c r="Q4" s="77"/>
       <c r="R4" s="77"/>
@@ -1865,7 +1865,7 @@
       <c r="V4" s="78"/>
       <c r="W4" s="76">
         <f>W5</f>
-        <v>44312</v>
+        <v>44340</v>
       </c>
       <c r="X4" s="77"/>
       <c r="Y4" s="77"/>
@@ -1875,7 +1875,7 @@
       <c r="AC4" s="78"/>
       <c r="AD4" s="76">
         <f>AD5</f>
-        <v>44319</v>
+        <v>44347</v>
       </c>
       <c r="AE4" s="77"/>
       <c r="AF4" s="77"/>
@@ -1885,7 +1885,7 @@
       <c r="AJ4" s="78"/>
       <c r="AK4" s="76">
         <f>AK5</f>
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="AL4" s="77"/>
       <c r="AM4" s="77"/>
@@ -1895,7 +1895,7 @@
       <c r="AQ4" s="78"/>
       <c r="AR4" s="76">
         <f>AR5</f>
-        <v>44333</v>
+        <v>44361</v>
       </c>
       <c r="AS4" s="77"/>
       <c r="AT4" s="77"/>
@@ -1905,7 +1905,7 @@
       <c r="AX4" s="78"/>
       <c r="AY4" s="76">
         <f>AY5</f>
-        <v>44340</v>
+        <v>44368</v>
       </c>
       <c r="AZ4" s="77"/>
       <c r="BA4" s="77"/>
@@ -1915,7 +1915,7 @@
       <c r="BE4" s="78"/>
       <c r="BF4" s="76">
         <f>BF5</f>
-        <v>44347</v>
+        <v>44375</v>
       </c>
       <c r="BG4" s="77"/>
       <c r="BH4" s="77"/>
@@ -1936,227 +1936,227 @@
       <c r="G5" s="82"/>
       <c r="I5" s="73">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
-        <v>44298</v>
+        <v>44326</v>
       </c>
       <c r="J5" s="74">
         <f>I5+1</f>
-        <v>44299</v>
+        <v>44327</v>
       </c>
       <c r="K5" s="74">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44300</v>
+        <v>44328</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44329</v>
       </c>
       <c r="M5" s="74">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="N5" s="74">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44331</v>
       </c>
       <c r="O5" s="75">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44332</v>
       </c>
       <c r="P5" s="73">
         <f>O5+1</f>
-        <v>44305</v>
+        <v>44333</v>
       </c>
       <c r="Q5" s="74">
         <f>P5+1</f>
-        <v>44306</v>
+        <v>44334</v>
       </c>
       <c r="R5" s="74">
         <f t="shared" si="0"/>
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="S5" s="74">
         <f t="shared" si="0"/>
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="T5" s="74">
         <f t="shared" si="0"/>
-        <v>44309</v>
+        <v>44337</v>
       </c>
       <c r="U5" s="74">
         <f t="shared" si="0"/>
-        <v>44310</v>
+        <v>44338</v>
       </c>
       <c r="V5" s="75">
         <f t="shared" si="0"/>
-        <v>44311</v>
+        <v>44339</v>
       </c>
       <c r="W5" s="73">
         <f>V5+1</f>
-        <v>44312</v>
+        <v>44340</v>
       </c>
       <c r="X5" s="74">
         <f>W5+1</f>
-        <v>44313</v>
+        <v>44341</v>
       </c>
       <c r="Y5" s="74">
         <f t="shared" si="0"/>
-        <v>44314</v>
+        <v>44342</v>
       </c>
       <c r="Z5" s="74">
         <f t="shared" si="0"/>
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="AA5" s="74">
         <f t="shared" si="0"/>
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="AB5" s="74">
         <f t="shared" si="0"/>
-        <v>44317</v>
+        <v>44345</v>
       </c>
       <c r="AC5" s="75">
         <f t="shared" si="0"/>
-        <v>44318</v>
+        <v>44346</v>
       </c>
       <c r="AD5" s="73">
         <f>AC5+1</f>
-        <v>44319</v>
+        <v>44347</v>
       </c>
       <c r="AE5" s="74">
         <f>AD5+1</f>
-        <v>44320</v>
+        <v>44348</v>
       </c>
       <c r="AF5" s="74">
         <f t="shared" si="0"/>
-        <v>44321</v>
+        <v>44349</v>
       </c>
       <c r="AG5" s="74">
         <f t="shared" si="0"/>
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="AH5" s="74">
         <f t="shared" si="0"/>
-        <v>44323</v>
+        <v>44351</v>
       </c>
       <c r="AI5" s="74">
         <f t="shared" si="0"/>
-        <v>44324</v>
+        <v>44352</v>
       </c>
       <c r="AJ5" s="75">
         <f t="shared" si="0"/>
-        <v>44325</v>
+        <v>44353</v>
       </c>
       <c r="AK5" s="73">
         <f>AJ5+1</f>
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="AL5" s="74">
         <f>AK5+1</f>
-        <v>44327</v>
+        <v>44355</v>
       </c>
       <c r="AM5" s="74">
         <f t="shared" si="0"/>
-        <v>44328</v>
+        <v>44356</v>
       </c>
       <c r="AN5" s="74">
         <f t="shared" si="0"/>
-        <v>44329</v>
+        <v>44357</v>
       </c>
       <c r="AO5" s="74">
         <f t="shared" si="0"/>
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="AP5" s="74">
         <f t="shared" si="0"/>
-        <v>44331</v>
+        <v>44359</v>
       </c>
       <c r="AQ5" s="75">
         <f t="shared" si="0"/>
-        <v>44332</v>
+        <v>44360</v>
       </c>
       <c r="AR5" s="73">
         <f>AQ5+1</f>
-        <v>44333</v>
+        <v>44361</v>
       </c>
       <c r="AS5" s="74">
         <f>AR5+1</f>
-        <v>44334</v>
+        <v>44362</v>
       </c>
       <c r="AT5" s="74">
         <f t="shared" si="0"/>
-        <v>44335</v>
+        <v>44363</v>
       </c>
       <c r="AU5" s="74">
         <f t="shared" si="0"/>
-        <v>44336</v>
+        <v>44364</v>
       </c>
       <c r="AV5" s="74">
         <f t="shared" si="0"/>
-        <v>44337</v>
+        <v>44365</v>
       </c>
       <c r="AW5" s="74">
         <f t="shared" si="0"/>
-        <v>44338</v>
+        <v>44366</v>
       </c>
       <c r="AX5" s="75">
         <f t="shared" si="0"/>
-        <v>44339</v>
+        <v>44367</v>
       </c>
       <c r="AY5" s="73">
         <f>AX5+1</f>
-        <v>44340</v>
+        <v>44368</v>
       </c>
       <c r="AZ5" s="74">
         <f>AY5+1</f>
-        <v>44341</v>
+        <v>44369</v>
       </c>
       <c r="BA5" s="74">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44342</v>
+        <v>44370</v>
       </c>
       <c r="BB5" s="74">
         <f t="shared" si="1"/>
-        <v>44343</v>
+        <v>44371</v>
       </c>
       <c r="BC5" s="74">
         <f t="shared" si="1"/>
-        <v>44344</v>
+        <v>44372</v>
       </c>
       <c r="BD5" s="74">
         <f t="shared" si="1"/>
-        <v>44345</v>
+        <v>44373</v>
       </c>
       <c r="BE5" s="75">
         <f t="shared" si="1"/>
-        <v>44346</v>
+        <v>44374</v>
       </c>
       <c r="BF5" s="73">
         <f>BE5+1</f>
-        <v>44347</v>
+        <v>44375</v>
       </c>
       <c r="BG5" s="74">
         <f>BF5+1</f>
-        <v>44348</v>
+        <v>44376</v>
       </c>
       <c r="BH5" s="74">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44349</v>
+        <v>44377</v>
       </c>
       <c r="BI5" s="74">
         <f t="shared" si="2"/>
-        <v>44350</v>
+        <v>44378</v>
       </c>
       <c r="BJ5" s="74">
         <f t="shared" si="2"/>
-        <v>44351</v>
+        <v>44379</v>
       </c>
       <c r="BK5" s="74">
         <f t="shared" si="2"/>
-        <v>44352</v>
+        <v>44380</v>
       </c>
       <c r="BL5" s="75">
         <f t="shared" si="2"/>
-        <v>44353</v>
+        <v>44381</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2803,7 +2803,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <f>F11</f>
@@ -2884,7 +2884,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <f>E10+1</f>
@@ -3038,7 +3038,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="22">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>F13+1</f>
@@ -3119,20 +3119,20 @@
         <v>44</v>
       </c>
       <c r="D16" s="22">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f>E15+2</f>
         <v>44305</v>
       </c>
       <c r="F16" s="2">
-        <f>E16+5</f>
-        <v>44310</v>
+        <f>E16+15</f>
+        <v>44320</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -3200,7 +3200,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="22">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <f>E16+1</f>
@@ -3281,7 +3281,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="22">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="2">
         <f>E17</f>
@@ -3435,20 +3435,20 @@
         <v>43</v>
       </c>
       <c r="D20" s="26">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="3">
         <f>E18+15</f>
         <v>44321</v>
       </c>
       <c r="F20" s="3">
-        <f>E20+4</f>
-        <v>44325</v>
+        <f>E20+14</f>
+        <v>44335</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
@@ -3516,7 +3516,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="26">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E21" s="3">
         <f>F18+1</f>
@@ -3597,7 +3597,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="26">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="E22" s="3">
         <f>E21+5</f>
@@ -3678,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="3">
         <f>F22+1</f>
@@ -3759,7 +3759,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="3">
         <f>F23+1</f>

--- a/lab/进度图.xlsx
+++ b/lab/进度图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496710C9-9F10-4613-BD5E-A70E844223B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1FEFE-D4CF-4C7E-870A-477D9050CE8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,13 @@
     <xf numFmtId="180" fontId="23" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1215,13 +1222,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1823,340 +1823,340 @@
         <v>2</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79">
+      <c r="D3" s="77"/>
+      <c r="E3" s="82">
         <v>44276</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="47">
-        <v>8</v>
-      </c>
-      <c r="I4" s="76">
+        <v>9</v>
+      </c>
+      <c r="I4" s="79">
         <f>I5</f>
-        <v>44326</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="76">
+        <v>44333</v>
+      </c>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79">
         <f>P5</f>
-        <v>44333</v>
-      </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="76">
+        <v>44340</v>
+      </c>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79">
         <f>W5</f>
-        <v>44340</v>
-      </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76">
+        <v>44347</v>
+      </c>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="79">
         <f>AD5</f>
-        <v>44347</v>
-      </c>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="76">
+        <v>44354</v>
+      </c>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="79">
         <f>AK5</f>
-        <v>44354</v>
-      </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="76">
+        <v>44361</v>
+      </c>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79">
         <f>AR5</f>
-        <v>44361</v>
-      </c>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="76">
+        <v>44368</v>
+      </c>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="79">
         <f>AY5</f>
-        <v>44368</v>
-      </c>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="76">
+        <v>44375</v>
+      </c>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <f>BF5</f>
-        <v>44375</v>
-      </c>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="78"/>
+        <v>44382</v>
+      </c>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="I5" s="73">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="J5" s="74">
         <f>I5+1</f>
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="K5" s="74">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="0"/>
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="M5" s="74">
         <f t="shared" si="0"/>
-        <v>44330</v>
+        <v>44337</v>
       </c>
       <c r="N5" s="74">
         <f t="shared" si="0"/>
-        <v>44331</v>
+        <v>44338</v>
       </c>
       <c r="O5" s="75">
         <f t="shared" si="0"/>
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="P5" s="73">
         <f>O5+1</f>
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="Q5" s="74">
         <f>P5+1</f>
-        <v>44334</v>
+        <v>44341</v>
       </c>
       <c r="R5" s="74">
         <f t="shared" si="0"/>
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="S5" s="74">
         <f t="shared" si="0"/>
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="T5" s="74">
         <f t="shared" si="0"/>
-        <v>44337</v>
+        <v>44344</v>
       </c>
       <c r="U5" s="74">
         <f t="shared" si="0"/>
-        <v>44338</v>
+        <v>44345</v>
       </c>
       <c r="V5" s="75">
         <f t="shared" si="0"/>
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="W5" s="73">
         <f>V5+1</f>
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="X5" s="74">
         <f>W5+1</f>
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="Y5" s="74">
         <f t="shared" si="0"/>
-        <v>44342</v>
+        <v>44349</v>
       </c>
       <c r="Z5" s="74">
         <f t="shared" si="0"/>
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="AA5" s="74">
         <f t="shared" si="0"/>
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="AB5" s="74">
         <f t="shared" si="0"/>
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="AC5" s="75">
         <f t="shared" si="0"/>
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="AD5" s="73">
         <f>AC5+1</f>
-        <v>44347</v>
+        <v>44354</v>
       </c>
       <c r="AE5" s="74">
         <f>AD5+1</f>
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="AF5" s="74">
         <f t="shared" si="0"/>
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="AG5" s="74">
         <f t="shared" si="0"/>
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="AH5" s="74">
         <f t="shared" si="0"/>
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="AI5" s="74">
         <f t="shared" si="0"/>
-        <v>44352</v>
+        <v>44359</v>
       </c>
       <c r="AJ5" s="75">
         <f t="shared" si="0"/>
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="AK5" s="73">
         <f>AJ5+1</f>
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="AL5" s="74">
         <f>AK5+1</f>
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="AM5" s="74">
         <f t="shared" si="0"/>
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="AN5" s="74">
         <f t="shared" si="0"/>
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="AO5" s="74">
         <f t="shared" si="0"/>
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="AP5" s="74">
         <f t="shared" si="0"/>
-        <v>44359</v>
+        <v>44366</v>
       </c>
       <c r="AQ5" s="75">
         <f t="shared" si="0"/>
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="AR5" s="73">
         <f>AQ5+1</f>
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="AS5" s="74">
         <f>AR5+1</f>
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="AT5" s="74">
         <f t="shared" si="0"/>
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="AU5" s="74">
         <f t="shared" si="0"/>
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="AV5" s="74">
         <f t="shared" si="0"/>
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="AW5" s="74">
         <f t="shared" si="0"/>
-        <v>44366</v>
+        <v>44373</v>
       </c>
       <c r="AX5" s="75">
         <f t="shared" si="0"/>
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="AY5" s="73">
         <f>AX5+1</f>
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="AZ5" s="74">
         <f>AY5+1</f>
-        <v>44369</v>
+        <v>44376</v>
       </c>
       <c r="BA5" s="74">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="BB5" s="74">
         <f t="shared" si="1"/>
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="BC5" s="74">
         <f t="shared" si="1"/>
-        <v>44372</v>
+        <v>44379</v>
       </c>
       <c r="BD5" s="74">
         <f t="shared" si="1"/>
-        <v>44373</v>
+        <v>44380</v>
       </c>
       <c r="BE5" s="75">
         <f t="shared" si="1"/>
-        <v>44374</v>
+        <v>44381</v>
       </c>
       <c r="BF5" s="73">
         <f>BE5+1</f>
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="BG5" s="74">
         <f>BF5+1</f>
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="BH5" s="74">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="BI5" s="74">
         <f t="shared" si="2"/>
-        <v>44378</v>
+        <v>44385</v>
       </c>
       <c r="BJ5" s="74">
         <f t="shared" si="2"/>
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="BK5" s="74">
         <f t="shared" si="2"/>
-        <v>44380</v>
+        <v>44387</v>
       </c>
       <c r="BL5" s="75">
         <f t="shared" si="2"/>
-        <v>44381</v>
+        <v>44388</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="26">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E20" s="3">
         <f>E18+15</f>
@@ -3516,7 +3516,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E21" s="3">
         <f>F18+1</f>
@@ -3597,7 +3597,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="26">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="3">
         <f>E21+5</f>
@@ -3678,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E23" s="3">
         <f>F22+1</f>
@@ -3759,7 +3759,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="3">
         <f>F23+1</f>
@@ -4455,11 +4455,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4467,6 +4462,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D32">

--- a/lab/进度图.xlsx
+++ b/lab/进度图.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1FEFE-D4CF-4C7E-870A-477D9050CE8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC26795-4677-4538-A53E-1C4A2C3EE5AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,18 @@
     <xf numFmtId="180" fontId="23" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1210,18 +1222,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1775,9 +1775,9 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1823,340 +1823,340 @@
         <v>2</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <v>44276</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="47">
-        <v>9</v>
-      </c>
-      <c r="I4" s="79">
+        <v>10</v>
+      </c>
+      <c r="I4" s="76">
         <f>I5</f>
-        <v>44333</v>
-      </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+        <v>44340</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f>P5</f>
-        <v>44340</v>
-      </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+        <v>44347</v>
+      </c>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f>W5</f>
-        <v>44347</v>
-      </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+        <v>44354</v>
+      </c>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f>AD5</f>
-        <v>44354</v>
-      </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+        <v>44361</v>
+      </c>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f>AK5</f>
-        <v>44361</v>
-      </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+        <v>44368</v>
+      </c>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f>AR5</f>
-        <v>44368</v>
-      </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+        <v>44375</v>
+      </c>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f>AY5</f>
-        <v>44375</v>
-      </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+        <v>44382</v>
+      </c>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f>BF5</f>
-        <v>44382</v>
-      </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+        <v>44389</v>
+      </c>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="I5" s="73">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="J5" s="74">
         <f>I5+1</f>
-        <v>44334</v>
+        <v>44341</v>
       </c>
       <c r="K5" s="74">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="0"/>
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="M5" s="74">
         <f t="shared" si="0"/>
-        <v>44337</v>
+        <v>44344</v>
       </c>
       <c r="N5" s="74">
         <f t="shared" si="0"/>
-        <v>44338</v>
+        <v>44345</v>
       </c>
       <c r="O5" s="75">
         <f t="shared" si="0"/>
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="P5" s="73">
         <f>O5+1</f>
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="Q5" s="74">
         <f>P5+1</f>
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="R5" s="74">
         <f t="shared" si="0"/>
-        <v>44342</v>
+        <v>44349</v>
       </c>
       <c r="S5" s="74">
         <f t="shared" si="0"/>
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="T5" s="74">
         <f t="shared" si="0"/>
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="U5" s="74">
         <f t="shared" si="0"/>
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="V5" s="75">
         <f t="shared" si="0"/>
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="W5" s="73">
         <f>V5+1</f>
-        <v>44347</v>
+        <v>44354</v>
       </c>
       <c r="X5" s="74">
         <f>W5+1</f>
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="Y5" s="74">
         <f t="shared" si="0"/>
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="Z5" s="74">
         <f t="shared" si="0"/>
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="AA5" s="74">
         <f t="shared" si="0"/>
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="AB5" s="74">
         <f t="shared" si="0"/>
-        <v>44352</v>
+        <v>44359</v>
       </c>
       <c r="AC5" s="75">
         <f t="shared" si="0"/>
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="AD5" s="73">
         <f>AC5+1</f>
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="AE5" s="74">
         <f>AD5+1</f>
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="AF5" s="74">
         <f t="shared" si="0"/>
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="AG5" s="74">
         <f t="shared" si="0"/>
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="AH5" s="74">
         <f t="shared" si="0"/>
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="AI5" s="74">
         <f t="shared" si="0"/>
-        <v>44359</v>
+        <v>44366</v>
       </c>
       <c r="AJ5" s="75">
         <f t="shared" si="0"/>
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="AK5" s="73">
         <f>AJ5+1</f>
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="AL5" s="74">
         <f>AK5+1</f>
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="AM5" s="74">
         <f t="shared" si="0"/>
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="AN5" s="74">
         <f t="shared" si="0"/>
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="AO5" s="74">
         <f t="shared" si="0"/>
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="AP5" s="74">
         <f t="shared" si="0"/>
-        <v>44366</v>
+        <v>44373</v>
       </c>
       <c r="AQ5" s="75">
         <f t="shared" si="0"/>
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="AR5" s="73">
         <f>AQ5+1</f>
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="AS5" s="74">
         <f>AR5+1</f>
-        <v>44369</v>
+        <v>44376</v>
       </c>
       <c r="AT5" s="74">
         <f t="shared" si="0"/>
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="AU5" s="74">
         <f t="shared" si="0"/>
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="AV5" s="74">
         <f t="shared" si="0"/>
-        <v>44372</v>
+        <v>44379</v>
       </c>
       <c r="AW5" s="74">
         <f t="shared" si="0"/>
-        <v>44373</v>
+        <v>44380</v>
       </c>
       <c r="AX5" s="75">
         <f t="shared" si="0"/>
-        <v>44374</v>
+        <v>44381</v>
       </c>
       <c r="AY5" s="73">
         <f>AX5+1</f>
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="AZ5" s="74">
         <f>AY5+1</f>
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="BA5" s="74">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="BB5" s="74">
         <f t="shared" si="1"/>
-        <v>44378</v>
+        <v>44385</v>
       </c>
       <c r="BC5" s="74">
         <f t="shared" si="1"/>
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="BD5" s="74">
         <f t="shared" si="1"/>
-        <v>44380</v>
+        <v>44387</v>
       </c>
       <c r="BE5" s="75">
         <f t="shared" si="1"/>
-        <v>44381</v>
+        <v>44388</v>
       </c>
       <c r="BF5" s="73">
         <f>BE5+1</f>
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="BG5" s="74">
         <f>BF5+1</f>
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="BH5" s="74">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="BI5" s="74">
         <f t="shared" si="2"/>
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="BJ5" s="74">
         <f t="shared" si="2"/>
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="BK5" s="74">
         <f t="shared" si="2"/>
-        <v>44387</v>
+        <v>44394</v>
       </c>
       <c r="BL5" s="75">
         <f t="shared" si="2"/>
-        <v>44388</v>
+        <v>44395</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3435,20 +3435,20 @@
         <v>43</v>
       </c>
       <c r="D20" s="26">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="E20" s="3">
         <f>E18+15</f>
         <v>44321</v>
       </c>
       <c r="F20" s="3">
-        <f>E20+14</f>
-        <v>44335</v>
+        <f>E20+22</f>
+        <v>44343</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
@@ -3516,20 +3516,20 @@
         <v>42</v>
       </c>
       <c r="D21" s="26">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E21" s="3">
         <f>F18+1</f>
         <v>44327</v>
       </c>
       <c r="F21" s="3">
-        <f>E21+15</f>
-        <v>44342</v>
+        <f>E21+20</f>
+        <v>44347</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
@@ -3597,20 +3597,20 @@
         <v>46</v>
       </c>
       <c r="D22" s="26">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E22" s="3">
         <f>E21+5</f>
         <v>44332</v>
       </c>
       <c r="F22" s="3">
-        <f>E22+5</f>
-        <v>44337</v>
+        <f>E22+10</f>
+        <v>44342</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -3678,15 +3678,15 @@
         <v>45</v>
       </c>
       <c r="D23" s="26">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="3">
         <f>F22+1</f>
-        <v>44338</v>
+        <v>44343</v>
       </c>
       <c r="F23" s="3">
         <f>E23+4</f>
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
@@ -3759,15 +3759,15 @@
         <v>44</v>
       </c>
       <c r="D24" s="26">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="3">
         <f>F23+1</f>
-        <v>44343</v>
+        <v>44348</v>
       </c>
       <c r="F24" s="3">
         <f>E24+4</f>
-        <v>44347</v>
+        <v>44352</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -4455,6 +4455,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4462,11 +4467,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D32">

--- a/lab/进度图.xlsx
+++ b/lab/进度图.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC26795-4677-4538-A53E-1C4A2C3EE5AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721CC1D5-BD97-445C-85AD-97F3DE5D5519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,6 +1203,13 @@
     <xf numFmtId="180" fontId="23" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1215,13 +1222,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1775,9 +1775,9 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO26" sqref="AO26"/>
+      <selection pane="bottomLeft" activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1823,340 +1823,340 @@
         <v>2</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79">
+      <c r="D3" s="77"/>
+      <c r="E3" s="82">
         <v>44276</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="47">
-        <v>10</v>
-      </c>
-      <c r="I4" s="76">
+        <v>11</v>
+      </c>
+      <c r="I4" s="79">
         <f>I5</f>
-        <v>44340</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="76">
+        <v>44347</v>
+      </c>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79">
         <f>P5</f>
-        <v>44347</v>
-      </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="76">
+        <v>44354</v>
+      </c>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79">
         <f>W5</f>
-        <v>44354</v>
-      </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76">
+        <v>44361</v>
+      </c>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="79">
         <f>AD5</f>
-        <v>44361</v>
-      </c>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="76">
+        <v>44368</v>
+      </c>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="79">
         <f>AK5</f>
-        <v>44368</v>
-      </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="76">
+        <v>44375</v>
+      </c>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79">
         <f>AR5</f>
-        <v>44375</v>
-      </c>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="76">
+        <v>44382</v>
+      </c>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="79">
         <f>AY5</f>
-        <v>44382</v>
-      </c>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="76">
+        <v>44389</v>
+      </c>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <f>BF5</f>
-        <v>44389</v>
-      </c>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="78"/>
+        <v>44396</v>
+      </c>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="I5" s="73">
         <f>项目开始-WEEKDAY(项目开始,1)+2+7*(显示周数-1)</f>
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="J5" s="74">
         <f>I5+1</f>
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="K5" s="74">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44342</v>
+        <v>44349</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="0"/>
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="M5" s="74">
         <f t="shared" si="0"/>
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="N5" s="74">
         <f t="shared" si="0"/>
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="O5" s="75">
         <f t="shared" si="0"/>
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="P5" s="73">
         <f>O5+1</f>
-        <v>44347</v>
+        <v>44354</v>
       </c>
       <c r="Q5" s="74">
         <f>P5+1</f>
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="R5" s="74">
         <f t="shared" si="0"/>
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="S5" s="74">
         <f t="shared" si="0"/>
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="T5" s="74">
         <f t="shared" si="0"/>
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="U5" s="74">
         <f t="shared" si="0"/>
-        <v>44352</v>
+        <v>44359</v>
       </c>
       <c r="V5" s="75">
         <f t="shared" si="0"/>
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="W5" s="73">
         <f>V5+1</f>
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="X5" s="74">
         <f>W5+1</f>
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="Y5" s="74">
         <f t="shared" si="0"/>
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="Z5" s="74">
         <f t="shared" si="0"/>
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="AA5" s="74">
         <f t="shared" si="0"/>
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="AB5" s="74">
         <f t="shared" si="0"/>
-        <v>44359</v>
+        <v>44366</v>
       </c>
       <c r="AC5" s="75">
         <f t="shared" si="0"/>
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="AD5" s="73">
         <f>AC5+1</f>
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="AE5" s="74">
         <f>AD5+1</f>
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="AF5" s="74">
         <f t="shared" si="0"/>
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="AG5" s="74">
         <f t="shared" si="0"/>
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="AH5" s="74">
         <f t="shared" si="0"/>
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="AI5" s="74">
         <f t="shared" si="0"/>
-        <v>44366</v>
+        <v>44373</v>
       </c>
       <c r="AJ5" s="75">
         <f t="shared" si="0"/>
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="AK5" s="73">
         <f>AJ5+1</f>
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="AL5" s="74">
         <f>AK5+1</f>
-        <v>44369</v>
+        <v>44376</v>
       </c>
       <c r="AM5" s="74">
         <f t="shared" si="0"/>
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="AN5" s="74">
         <f t="shared" si="0"/>
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="AO5" s="74">
         <f t="shared" si="0"/>
-        <v>44372</v>
+        <v>44379</v>
       </c>
       <c r="AP5" s="74">
         <f t="shared" si="0"/>
-        <v>44373</v>
+        <v>44380</v>
       </c>
       <c r="AQ5" s="75">
         <f t="shared" si="0"/>
-        <v>44374</v>
+        <v>44381</v>
       </c>
       <c r="AR5" s="73">
         <f>AQ5+1</f>
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="AS5" s="74">
         <f>AR5+1</f>
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="AT5" s="74">
         <f t="shared" si="0"/>
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="AU5" s="74">
         <f t="shared" si="0"/>
-        <v>44378</v>
+        <v>44385</v>
       </c>
       <c r="AV5" s="74">
         <f t="shared" si="0"/>
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="AW5" s="74">
         <f t="shared" si="0"/>
-        <v>44380</v>
+        <v>44387</v>
       </c>
       <c r="AX5" s="75">
         <f t="shared" si="0"/>
-        <v>44381</v>
+        <v>44388</v>
       </c>
       <c r="AY5" s="73">
         <f>AX5+1</f>
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="AZ5" s="74">
         <f>AY5+1</f>
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="BA5" s="74">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="BB5" s="74">
         <f t="shared" si="1"/>
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="BC5" s="74">
         <f t="shared" si="1"/>
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="BD5" s="74">
         <f t="shared" si="1"/>
-        <v>44387</v>
+        <v>44394</v>
       </c>
       <c r="BE5" s="75">
         <f t="shared" si="1"/>
-        <v>44388</v>
+        <v>44395</v>
       </c>
       <c r="BF5" s="73">
         <f>BE5+1</f>
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="BG5" s="74">
         <f>BF5+1</f>
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="BH5" s="74">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="BI5" s="74">
         <f t="shared" si="2"/>
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="BJ5" s="74">
         <f t="shared" si="2"/>
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="BK5" s="74">
         <f t="shared" si="2"/>
-        <v>44394</v>
+        <v>44401</v>
       </c>
       <c r="BL5" s="75">
         <f t="shared" si="2"/>
-        <v>44395</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3435,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="26">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
         <f>E18+15</f>
@@ -3516,7 +3516,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="26">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E21" s="3">
         <f>F18+1</f>
@@ -3597,7 +3597,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="26">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E22" s="3">
         <f>E21+5</f>
@@ -3678,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="26">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E23" s="3">
         <f>F22+1</f>
@@ -3759,7 +3759,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="26">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E24" s="3">
         <f>F23+1</f>
@@ -4455,11 +4455,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4467,6 +4462,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D32">
